--- a/participants/participant_07/participant_07_task_orders.xlsx
+++ b/participants/participant_07/participant_07_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730231917386" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730264700658" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730264740708" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730265497606" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730266267445" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911336104875" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911368724408" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911368734398" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911369302914" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911370191853" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730231646013.csv</t>
+          <t>go_stims-16502911335680077.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730231762798.csv</t>
+          <t>GNG_stims-16502911335858073.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730231772816.csv</t>
+          <t>go_stims-1650291133586446.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730231917386.csv</t>
+          <t>GNG_stims-16502911336094878.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16498730264580746.csv</t>
+          <t>OB-1650291135881013.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16498730259431138.csv</t>
+          <t>TB-16502911368497703.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_1-1649873023681654.csv</t>
+          <t>OB-16502911354647012.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16498730253465984.csv</t>
+          <t>TB-16502911367419972.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16498730252330036.csv</t>
+          <t>ZB-match_6-1650291133768858.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_2-16498730234696193.csv</t>
+          <t>TB-16502911366693418.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_6-1649873023819623.csv</t>
+          <t>OB-16502911344423692.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16498730252108345.csv</t>
+          <t>ZB-match_7-16502911336910946.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16498730239606173.csv</t>
+          <t>ZB-match_6-16502911339603798.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730265031095.csv</t>
+          <t>MM_stims-16502911368883786.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873026476069.csv</t>
+          <t>ZM_stims-16502911368754456.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730265327616.csv</t>
+          <t>MM_stims-16502911369141219.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730265031095.csv</t>
+          <t>ZM_stims-16502911368893423.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1649873026548794.csv</t>
+          <t>MM_stims-16502911369293287.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730265347643.csv</t>
+          <t>ZM_stims-16502911369151266.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730265644996.csv</t>
+          <t>vSAT_stims-16502911369769409.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730265803602.csv</t>
+          <t>SAT_stims-16502911369352934.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730266107178.csv</t>
+          <t>SAT_stims-1650291136960761.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730265517607.csv</t>
+          <t>vSAT_stims-16502911370031323.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_07/participant_07_task_orders.xlsx
+++ b/participants/participant_07/participant_07_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911336104875" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911368724408" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911368734398" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911369302914" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911370191853" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504777884044206" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650477790749374" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504777907503755" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504777907974102" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504777908614125" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911335680077.csv</t>
+          <t>go_stims-1650477788368376.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911335858073.csv</t>
+          <t>GNG_stims-16504777883874106.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650291133586446.csv</t>
+          <t>go_stims-16504777883883758.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911336094878.csv</t>
+          <t>GNG_stims-16504777884034107.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650291135881013.csv</t>
+          <t>OB-16504777890973783.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16502911368497703.csv</t>
+          <t>TB-16504777902563782.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502911354647012.csv</t>
+          <t>ZB-match_1-16504777885853791.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502911367419972.csv</t>
+          <t>TB-16504777906244104.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_6-1650291133768858.csv</t>
+          <t>OB-16504777889863772.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16502911366693418.csv</t>
+          <t>TB-16504777907303748.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502911344423692.csv</t>
+          <t>ZB-match_2-1650477788873378.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_7-16502911336910946.csv</t>
+          <t>ZB-match_9-1650477788611381.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911339603798.csv</t>
+          <t>OB-16504777896884058.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911368883786.csv</t>
+          <t>MM_stims-16504777907653773.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911368754456.csv</t>
+          <t>ZM_stims-16504777907523766.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911369141219.csv</t>
+          <t>MM_stims-1650477790781413.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911368893423.csv</t>
+          <t>ZM_stims-16504777907653773.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911369293287.csv</t>
+          <t>MM_stims-16504777907974102.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911369151266.csv</t>
+          <t>ZM_stims-16504777907823784.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911369769409.csv</t>
+          <t>vSAT_stims-16504777908294127.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911369352934.csv</t>
+          <t>SAT_stims-16504777908003764.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291136960761.csv</t>
+          <t>vSAT_stims-16504777908454113.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911370031323.csv</t>
+          <t>SAT_stims-1650477790813412.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_07/participant_07_task_orders.xlsx
+++ b/participants/participant_07/participant_07_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504777884044206" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650477790749374" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504777907503755" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504777907974102" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504777908614125" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509960776488428" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509960794408443" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509960794408443" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650996079488845" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650996079568885" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650477788368376.csv</t>
+          <t>go_stims-16509960776006942.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777883874106.csv</t>
+          <t>GNG_stims-16509960776246889.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504777883883758.csv</t>
+          <t>go_stims-16509960776246889.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777884034107.csv</t>
+          <t>GNG_stims-16509960776488428.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16504777890973783.csv</t>
+          <t>OB-16509960783368666.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16504777902563782.csv</t>
+          <t>ZB-match_4-16509960778728545.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504777885853791.csv</t>
+          <t>ZB-match_9-16509960782168756.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16504777906244104.csv</t>
+          <t>TB-16509960794248435.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16504777889863772.csv</t>
+          <t>OB-16509960783128507.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16504777907303748.csv</t>
+          <t>TB-16509960788168538.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_2-1650477788873378.csv</t>
+          <t>OB-16509960785448542.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_9-1650477788611381.csv</t>
+          <t>TB-16509960788968437.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504777896884058.csv</t>
+          <t>ZB-match_0-16509960776648495.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504777907653773.csv</t>
+          <t>MM_stims-16509960794568791.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777907523766.csv</t>
+          <t>ZM_stims-16509960794408443.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650477790781413.csv</t>
+          <t>MM_stims-16509960794728796.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777907653773.csv</t>
+          <t>ZM_stims-16509960794568791.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504777907974102.csv</t>
+          <t>MM_stims-1650996079488845.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777907823784.csv</t>
+          <t>ZM_stims-16509960794728796.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504777908294127.csv</t>
+          <t>vSAT_stims-16509960795448773.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777908003764.csv</t>
+          <t>vSAT_stims-16509960795288796.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504777908454113.csv</t>
+          <t>SAT_stims-16509960795128868.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477790813412.csv</t>
+          <t>SAT_stims-1650996079488845.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_07/participant_07_task_orders.xlsx
+++ b/participants/participant_07/participant_07_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509960776488428" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509960794408443" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509960794408443" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650996079488845" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650996079568885" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511686638302891" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511686662126613" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511686662136605" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511686662593532" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511686663231382" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509960776006942.csv</t>
+          <t>go_stims-16511686637874367.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960776246889.csv</t>
+          <t>GNG_stims-16511686638138764.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509960776246889.csv</t>
+          <t>go_stims-16511686638158722.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960776488428.csv</t>
+          <t>GNG_stims-16511686638293252.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509960783368666.csv</t>
+          <t>OB-1651168665130912.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_4-16509960778728545.csv</t>
+          <t>OB-16511686642800615.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_9-16509960782168756.csv</t>
+          <t>TB-16511686657477145.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16509960794248435.csv</t>
+          <t>ZB-match_0-1651168664248513.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16509960783128507.csv</t>
+          <t>TB-16511686661987033.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509960788168538.csv</t>
+          <t>ZB-match_1-16511686638464763.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16509960785448542.csv</t>
+          <t>TB-16511686655397918.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16509960788968437.csv</t>
+          <t>ZB-match_1-16511686639730818.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509960776648495.csv</t>
+          <t>OB-16511686646200037.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509960794568791.csv</t>
+          <t>MM_stims-1651168666227894.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960794408443.csv</t>
+          <t>ZM_stims-16511686662158728.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509960794728796.csv</t>
+          <t>MM_stims-1651168666243335.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960794568791.csv</t>
+          <t>ZM_stims-1651168666227894.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650996079488845.csv</t>
+          <t>MM_stims-16511686662593532.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960794728796.csv</t>
+          <t>ZM_stims-16511686662443411.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960795448773.csv</t>
+          <t>vSAT_stims-16511686663075967.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960795288796.csv</t>
+          <t>SAT_stims-16511686662623563.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960795128868.csv</t>
+          <t>SAT_stims-16511686662751567.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1650996079488845.csv</t>
+          <t>vSAT_stims-1651168666292021.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_07/participant_07_task_orders.xlsx
+++ b/participants/participant_07/participant_07_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511686638302891" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511686662126613" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511686662136605" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511686662593532" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511686663231382" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512554975008092" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555006004918" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555006064906" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555006644528" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555007414505" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511686637874367.csv</t>
+          <t>go_stims-16512554974648116.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686638138764.csv</t>
+          <t>GNG_stims-16512554974838448.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511686638158722.csv</t>
+          <t>go_stims-1651255497484844.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686638293252.csv</t>
+          <t>GNG_stims-1651255497499847.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1651168665130912.csv</t>
+          <t>TB-16512555005854964.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16511686642800615.csv</t>
+          <t>ZB-match_4-1651255498023817.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16511686657477145.csv</t>
+          <t>TB-1651255500399499.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-1651168664248513.csv</t>
+          <t>OB-16512554993379278.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511686661987033.csv</t>
+          <t>ZB-match_0-16512554979448082.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_1-16511686638464763.csv</t>
+          <t>TB-16512554996394515.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16511686655397918.csv</t>
+          <t>OB-16512554989399862.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_1-16511686639730818.csv</t>
+          <t>ZB-match_6-1651255498274851.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16511686646200037.csv</t>
+          <t>OB-16512554990949633.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1651168666227894.csv</t>
+          <t>MM_stims-16512555006324558.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686662158728.csv</t>
+          <t>ZM_stims-16512555006084547.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1651168666243335.csv</t>
+          <t>MM_stims-16512555006484556.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168666227894.csv</t>
+          <t>ZM_stims-16512555006334584.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511686662593532.csv</t>
+          <t>MM_stims-16512555006634934.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686662443411.csv</t>
+          <t>ZM_stims-1651255500649457.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686663075967.csv</t>
+          <t>vSAT_stims-1651255500711452.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686662623563.csv</t>
+          <t>vSAT_stims-16512555007264504.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686662751567.csv</t>
+          <t>SAT_stims-1651255500695455.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168666292021.csv</t>
+          <t>SAT_stims-16512555006694658.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_07/participant_07_task_orders.xlsx
+++ b/participants/participant_07/participant_07_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512554975008092" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555006004918" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555006064906" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555006644528" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555007414505" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515889256847038" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-16515889257489367" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NB_TO-16515889281115365" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515889281148324" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GNG_TO-1651588928146314" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512554974648116.csv</t>
+          <t>vSAT_stims-16515889256537647.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512554974838448.csv</t>
+          <t>SAT_stims-16515889256243308.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651255497484844.csv</t>
+          <t>vSAT_stims-16515889256689289.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255497499847.csv</t>
+          <t>SAT_stims-16515889256369545.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MM_stims-1651588925715447.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZM_stims-1651588925691565.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889257302969.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889257164443.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889257469351.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889257302969.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +602,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16512555005854964.csv</t>
+          <t>ZB-match_9-16515889258356013.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +612,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_4-1651255498023817.csv</t>
+          <t>TB-16515889280857034.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1651255500399499.csv</t>
+          <t>TB-16515889270901325.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +632,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16512554993379278.csv</t>
+          <t>ZB-match_2-16515889258088424.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_0-16512554979448082.csv</t>
+          <t>OB-16515889265960755.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512554996394515.csv</t>
+          <t>ZB-match_4-16515889257961376.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16512554989399862.csv</t>
+          <t>OB-16515889260685384.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +672,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_6-1651255498274851.csv</t>
+          <t>OB-1651588926561505.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +682,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16512554990949633.csv</t>
+          <t>TB-16515889271889665.csv</t>
         </is>
       </c>
     </row>
@@ -605,7 +691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,92 +729,6 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555006324558.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555006084547.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555006484556.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555006334584.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555006634934.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255500649457.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255500711452.csv</t>
+          <t>go_stims-1651588928116843.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555007264504.csv</t>
+          <t>GNG_stims-16515889281293.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255500695455.csv</t>
+          <t>go_stims-16515889281323264.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555006694658.csv</t>
+          <t>GNG_stims-16515889281453197.csv</t>
         </is>
       </c>
     </row>
